--- a/raw/TV_CO2_Flux_2013-2019.xlsx
+++ b/raw/TV_CO2_Flux_2013-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rahj\Data Request\Taal Volcano_RaphaelLontoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raphael\Documents\VSCode\CPEN 70\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41BB384-1C5F-419D-A54A-BF8BBCE72618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E18C45E-0D4A-4490-9171-D54A827F28FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C95AF06-6448-4787-B1D5-7A58FE62AD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4C95AF06-6448-4787-B1D5-7A58FE62AD58}"/>
   </bookViews>
   <sheets>
     <sheet name="MCL CO2 Flux" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>CO2 Flux (t/d)</t>
   </si>
-  <si>
-    <t>Taal Volcano Main Crater Lake CO2 Flux</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,14 +59,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,19 +94,17 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,9 +124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -283,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,233 +420,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1E58FA-985D-4D38-8865-AEEA5E67F9B8}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
+      <c r="A2" s="4">
+        <v>41334</v>
+      </c>
+      <c r="B2" s="1">
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>41334</v>
+      <c r="A3" s="4">
+        <v>41456</v>
       </c>
       <c r="B3" s="1">
-        <v>870</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>41456</v>
+      <c r="A4" s="4">
+        <v>41548</v>
       </c>
       <c r="B4" s="1">
-        <v>1700</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>41548</v>
+      <c r="A5" s="4">
+        <v>41640</v>
       </c>
       <c r="B5" s="1">
-        <v>540</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>41640</v>
+      <c r="A6" s="4">
+        <v>41671</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>41671</v>
+      <c r="A7" s="4">
+        <v>41791</v>
       </c>
       <c r="B7" s="1">
-        <v>680</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>41791</v>
+      <c r="A8" s="4">
+        <v>41821</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>41821</v>
+      <c r="A9" s="4">
+        <v>41944</v>
       </c>
       <c r="B9" s="1">
-        <v>1800</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>41944</v>
+      <c r="A10" s="4">
+        <v>42005</v>
       </c>
       <c r="B10" s="1">
-        <v>2290</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>42005</v>
+      <c r="A11" s="4">
+        <v>42095</v>
       </c>
       <c r="B11" s="1">
-        <v>1980</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>42095</v>
+      <c r="A12" s="4">
+        <v>42186</v>
       </c>
       <c r="B12" s="1">
-        <v>1580</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>42186</v>
+      <c r="A13" s="4">
+        <v>42278</v>
       </c>
       <c r="B13" s="1">
-        <v>2300</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>42278</v>
+      <c r="A14" s="4">
+        <v>42370</v>
       </c>
       <c r="B14" s="1">
-        <v>1550</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>42370</v>
+      <c r="A15" s="4">
+        <v>42552</v>
       </c>
       <c r="B15" s="1">
-        <v>1380</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>42552</v>
+      <c r="A16" s="4">
+        <v>42760</v>
       </c>
       <c r="B16" s="1">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>42760</v>
+      <c r="A17" s="4">
+        <v>42845</v>
       </c>
       <c r="B17" s="1">
-        <v>460</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>42845</v>
+      <c r="A18" s="4">
+        <v>42936</v>
       </c>
       <c r="B18" s="1">
-        <v>390</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>42936</v>
+      <c r="A19" s="4">
+        <v>43060</v>
       </c>
       <c r="B19" s="1">
-        <v>598</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>43060</v>
+      <c r="A20" s="4">
+        <v>43164</v>
       </c>
       <c r="B20" s="1">
-        <v>446</v>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>43164</v>
-      </c>
-      <c r="B21" s="1">
-        <v>984</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="A21" s="4">
+        <v>43343</v>
+      </c>
+      <c r="B21" s="3">
+        <v>251.10527579425369</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>43343</v>
+      <c r="A22" s="4">
+        <v>43525</v>
       </c>
       <c r="B22" s="3">
-        <v>251.10527579425369</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>43525</v>
+      <c r="A23" s="4">
+        <v>43692</v>
       </c>
       <c r="B23" s="3">
-        <v>311</v>
+        <v>1302.5730957251308</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>43692</v>
+      <c r="A24" s="4">
+        <v>43753</v>
       </c>
       <c r="B24" s="3">
-        <v>1302.5730957251308</v>
+        <v>1147.147184187279</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>43753</v>
+      <c r="A25" s="4">
+        <v>43796</v>
       </c>
       <c r="B25" s="3">
-        <v>1147.147184187279</v>
+        <v>1364.3629496242388</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>43796</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1364.3629496242388</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
